--- a/IT002-OOP/Điểm thực hành/it002m22htcl/it002m22htcl1.xlsx
+++ b/IT002-OOP/Điểm thực hành/it002m22htcl/it002m22htcl1.xlsx
@@ -1,37 +1,141 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haime\OneDrive\Máy tính\Quan trọng\Giảng dạy\IT002-OOP\Điểm thực hành\it002m22htcl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA71469-F22D-4D27-A49B-D4971633FA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Nguyễn Gia Hiếu</t>
+  </si>
+  <si>
+    <t>Nguyễn Chí Thông</t>
+  </si>
+  <si>
+    <t>Nguyễn Phương Duy</t>
+  </si>
+  <si>
+    <t>Mai Xuân Linh</t>
+  </si>
+  <si>
+    <t>Nguyễn Đặng Phương Linh</t>
+  </si>
+  <si>
+    <t>Thái Ngọc Dũng</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Duy</t>
+  </si>
+  <si>
+    <t>Phan Nguyễn Lâm Hà</t>
+  </si>
+  <si>
+    <t>Đinh Nhật Huy</t>
+  </si>
+  <si>
+    <t>Nguyễn Quốc Huy</t>
+  </si>
+  <si>
+    <t>Nguyễn Chí Kha</t>
+  </si>
+  <si>
+    <t>Hồ Đắc Khải</t>
+  </si>
+  <si>
+    <t>Chế Duy Khang</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy Khánh</t>
+  </si>
+  <si>
+    <t>Đỗ Đình Đăng Khoa</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Khoa</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Khoa</t>
+  </si>
+  <si>
+    <t>Lê Thị Kiều Lam</t>
+  </si>
+  <si>
+    <t>Ngô Văn Mạnh</t>
+  </si>
+  <si>
+    <t>Hoàng Nhật Minh</t>
+  </si>
+  <si>
+    <t>Lê Nguyễn Nhật Minh</t>
+  </si>
+  <si>
+    <t>Thi (thang 10)</t>
+  </si>
+  <si>
+    <t>Điểm cuối (thang 10)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF39424E"/>
+      <name val="OpenSans"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +150,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,514 +476,676 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="n">
+    <row r="1" spans="1:9" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>18521659</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Trần Thế Vinh</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>19520543</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Nguyễn Gia Hiếu</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>350</v>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>350</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3">
+        <f>C2/800+D2/800+E2/800+F2/900+G2/800+H2/2</f>
+        <v>3.375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>19520991</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Nguyễn Chí Thông</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>200</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D3">
         <v>400</v>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>800</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I22" si="0">C3/800+D3/800+E3/800+F3/900+G3/800+H3/2</f>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>20521242</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Nguyễn Phương Duy</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>350</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>166.67</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="0"/>
+        <v>4.6458374999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>21521076</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Mai Xuân Linh</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>116.67</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E5">
         <v>100</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F5">
         <v>100</v>
       </c>
-      <c r="G6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="G5">
+        <v>700</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="0"/>
+        <v>4.2569486111111114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>21521077</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Nguyễn Đặng Phương Linh</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>21521982</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Thái Ngọc Dũng</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
         <v>775</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D7">
         <v>550</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E7">
         <v>200</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F7">
         <v>400</v>
       </c>
-      <c r="G8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="G7">
+        <v>800</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="0"/>
+        <v>8.3506944444444446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>21522005</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Nguyễn Minh Duy</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>100</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F8">
         <v>300</v>
       </c>
-      <c r="G9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="G8">
+        <v>800</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="0"/>
+        <v>4.458333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>21522030</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Phan Nguyễn Lâm Hà</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="n">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>450</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E9">
         <v>700</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F9">
         <v>900</v>
       </c>
-      <c r="G10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="G9">
+        <v>800</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="0"/>
+        <v>8.4375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>21522136</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Đinh Nhật Huy</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
         <v>750</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>33.33</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F10">
         <v>400</v>
       </c>
-      <c r="G11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="0"/>
+        <v>6.4236069444444439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>21522158</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Nguyễn Quốc Huy</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>800</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>800</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>66.67</v>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>800</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="0"/>
+        <v>5.5833374999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>21522179</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Nguyễn Chí Kha</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>800</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>800</v>
+      </c>
+      <c r="D12">
         <v>642.86</v>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>500</v>
       </c>
-      <c r="G13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="G12">
+        <v>150</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>7.0466305555555557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>21522183</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Hồ Đắc Khải</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>800</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>800</v>
+      </c>
+      <c r="D13">
         <v>600</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E13">
         <v>100</v>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="0"/>
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>21522187</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Chế Duy Khang</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
         <v>700</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D14">
         <v>664.29</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E14">
         <v>500</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F14">
         <v>900</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="G14">
+        <v>800</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="0"/>
+        <v>8.8303624999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>21522208</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Nguyễn Duy Khánh</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>800</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>800</v>
+      </c>
+      <c r="D15">
         <v>657.14</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E15">
         <v>66.67</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F15">
         <v>500</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="G15">
+        <v>700</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="0"/>
+        <v>8.3353180555555557</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>21522218</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Đỗ Đình Đăng Khoa</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>800</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>800</v>
+      </c>
+      <c r="D16">
         <v>350</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E16">
         <v>600</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F16">
         <v>500</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="G16">
+        <v>800</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="0"/>
+        <v>7.7430555555555554</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>21522228</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Nguyễn Đức Khoa</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
         <v>700</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D17">
         <v>250</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E17">
         <v>600</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F17">
         <v>600</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="G17">
+        <v>800</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="0"/>
+        <v>4.6041666666666661</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>21522231</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Nguyễn Quang Khoa</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>550</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>21522275</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Lê Thị Kiều Lam</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
         <v>650</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D19">
         <v>400</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E19">
         <v>266.67</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F19">
         <v>550</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>21522319</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Dương Thị Tuyết Mai</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="G19">
+        <v>800</v>
+      </c>
+      <c r="H19">
+        <v>7</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="0"/>
+        <v>6.7569486111111114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>21522328</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Ngô Văn Mạnh</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>800</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>800</v>
+      </c>
+      <c r="D20">
         <v>750</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E20">
         <v>700</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F20">
         <v>900</v>
       </c>
-      <c r="G22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="G20">
+        <v>800</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="0"/>
+        <v>8.3125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>21522336</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Hoàng Nhật Minh</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>800</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>800</v>
+      </c>
+      <c r="D21">
         <v>750</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E21">
         <v>200</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F21">
         <v>600</v>
       </c>
-      <c r="G23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="G21">
+        <v>800</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="0"/>
+        <v>6.8541666666666661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>21522338</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Lê Nguyễn Nhật Minh</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>800</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>800</v>
+      </c>
+      <c r="D22">
         <v>750</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E22">
         <v>700</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F22">
         <v>900</v>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="G22">
+        <v>800</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="0"/>
+        <v>9.8125</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/IT002-OOP/Điểm thực hành/it002m22htcl/it002m22htcl1.xlsx
+++ b/IT002-OOP/Điểm thực hành/it002m22htcl/it002m22htcl1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haime\OneDrive\Máy tính\Quan trọng\Giảng dạy\IT002-OOP\Điểm thực hành\it002m22htcl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA71469-F22D-4D27-A49B-D4971633FA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD69CF7-FB8A-488C-89FF-86AD91575DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,7 +129,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF39424E"/>
+      <color theme="1"/>
       <name val="OpenSans"/>
     </font>
   </fonts>
@@ -173,8 +173,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -480,7 +480,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -524,27 +524,26 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
         <v>350</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
         <v>350</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>5</v>
       </c>
-      <c r="I2" s="3">
-        <f>C2/800+D2/800+E2/800+F2/900+G2/800+H2/2</f>
-        <v>3.375</v>
+      <c r="I2" s="2">
+        <v>3.38</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -554,27 +553,26 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>200</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>400</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>800</v>
-      </c>
-      <c r="H3">
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>100</v>
+      </c>
+      <c r="G3" s="2">
+        <v>800</v>
+      </c>
+      <c r="H3" s="2">
         <v>5</v>
       </c>
-      <c r="I3" s="3">
-        <f t="shared" ref="I3:I22" si="0">C3/800+D3/800+E3/800+F3/900+G3/800+H3/2</f>
-        <v>4.25</v>
+      <c r="I3" s="2">
+        <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -584,27 +582,26 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>350</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
         <v>166.67</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+      <c r="F4" s="2">
+        <v>200</v>
+      </c>
+      <c r="G4" s="2">
+        <v>500</v>
+      </c>
+      <c r="H4" s="2">
         <v>8</v>
       </c>
-      <c r="I4" s="3">
-        <f t="shared" si="0"/>
-        <v>4.6458374999999998</v>
+      <c r="I4" s="2">
+        <v>5.49</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -614,27 +611,26 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="2">
+        <v>157.13999999999999</v>
+      </c>
+      <c r="D5" s="2">
         <v>116.67</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>100</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>100</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>700</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>6</v>
       </c>
-      <c r="I5" s="3">
-        <f t="shared" si="0"/>
-        <v>4.2569486111111114</v>
+      <c r="I5" s="2">
+        <v>4.45</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -644,26 +640,25 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
         <v>4</v>
       </c>
-      <c r="I6" s="3">
-        <f t="shared" si="0"/>
+      <c r="I6" s="2">
         <v>2</v>
       </c>
     </row>
@@ -674,27 +669,26 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>775</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>550</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>200</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>400</v>
       </c>
-      <c r="G7">
-        <v>800</v>
-      </c>
-      <c r="H7">
+      <c r="G7" s="2">
+        <v>800</v>
+      </c>
+      <c r="H7" s="2">
         <v>10</v>
       </c>
-      <c r="I7" s="3">
-        <f t="shared" si="0"/>
-        <v>8.3506944444444446</v>
+      <c r="I7" s="2">
+        <v>8.35</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -704,27 +698,26 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
+      <c r="C8" s="2">
+        <v>200</v>
+      </c>
+      <c r="D8" s="2">
         <v>100</v>
       </c>
-      <c r="F8">
+      <c r="E8" s="2">
+        <v>100</v>
+      </c>
+      <c r="F8" s="2">
         <v>300</v>
       </c>
-      <c r="G8">
-        <v>800</v>
-      </c>
-      <c r="H8">
+      <c r="G8" s="2">
+        <v>800</v>
+      </c>
+      <c r="H8" s="2">
         <v>6</v>
       </c>
-      <c r="I8" s="3">
-        <f t="shared" si="0"/>
-        <v>4.458333333333333</v>
+      <c r="I8" s="2">
+        <v>4.83</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -734,27 +727,26 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="2">
+        <v>700</v>
+      </c>
+      <c r="D9" s="2">
         <v>450</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>700</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>900</v>
       </c>
-      <c r="G9">
-        <v>800</v>
-      </c>
-      <c r="H9">
+      <c r="G9" s="2">
+        <v>800</v>
+      </c>
+      <c r="H9" s="2">
         <v>10</v>
       </c>
-      <c r="I9" s="3">
-        <f t="shared" si="0"/>
-        <v>8.4375</v>
+      <c r="I9" s="2">
+        <v>9.31</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -764,27 +756,26 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>750</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
         <v>33.33</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>400</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
         <v>10</v>
       </c>
-      <c r="I10" s="3">
-        <f t="shared" si="0"/>
-        <v>6.4236069444444439</v>
+      <c r="I10" s="2">
+        <v>6.42</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -794,27 +785,26 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
-        <v>800</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="C11" s="2">
+        <v>800</v>
+      </c>
+      <c r="D11" s="2">
+        <v>521.42999999999995</v>
+      </c>
+      <c r="E11" s="2">
         <v>66.67</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>800</v>
-      </c>
-      <c r="H11">
+      <c r="F11" s="2">
+        <v>400</v>
+      </c>
+      <c r="G11" s="2">
+        <v>800</v>
+      </c>
+      <c r="H11" s="2">
         <v>7</v>
       </c>
-      <c r="I11" s="3">
-        <f t="shared" si="0"/>
-        <v>5.5833374999999998</v>
+      <c r="I11" s="2">
+        <v>6.68</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -824,27 +814,26 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
-        <v>800</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="2">
+        <v>800</v>
+      </c>
+      <c r="D12" s="2">
         <v>642.86</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
         <v>500</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>150</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>9</v>
       </c>
-      <c r="I12" s="3">
-        <f t="shared" si="0"/>
-        <v>7.0466305555555557</v>
+      <c r="I12" s="2">
+        <v>7.05</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -854,27 +843,26 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
-        <v>800</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="2">
+        <v>800</v>
+      </c>
+      <c r="D13" s="2">
         <v>600</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>100</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>8</v>
-      </c>
-      <c r="I13" s="3">
-        <f t="shared" si="0"/>
-        <v>5.875</v>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>10</v>
+      </c>
+      <c r="I13" s="2">
+        <v>6.88</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -884,27 +872,26 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>700</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>664.29</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>500</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>900</v>
       </c>
-      <c r="G14">
-        <v>800</v>
-      </c>
-      <c r="H14">
+      <c r="G14" s="2">
+        <v>800</v>
+      </c>
+      <c r="H14" s="2">
         <v>9</v>
       </c>
-      <c r="I14" s="3">
-        <f t="shared" si="0"/>
-        <v>8.8303624999999997</v>
+      <c r="I14" s="2">
+        <v>8.83</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -914,27 +901,26 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15">
-        <v>800</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="2">
+        <v>800</v>
+      </c>
+      <c r="D15" s="2">
         <v>657.14</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>66.67</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>500</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>700</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <v>10</v>
       </c>
-      <c r="I15" s="3">
-        <f t="shared" si="0"/>
-        <v>8.3353180555555557</v>
+      <c r="I15" s="2">
+        <v>8.34</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -944,27 +930,26 @@
       <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C16">
-        <v>800</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="2">
+        <v>800</v>
+      </c>
+      <c r="D16" s="2">
         <v>350</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>600</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>500</v>
       </c>
-      <c r="G16">
-        <v>800</v>
-      </c>
-      <c r="H16">
+      <c r="G16" s="2">
+        <v>800</v>
+      </c>
+      <c r="H16" s="2">
         <v>8</v>
       </c>
-      <c r="I16" s="3">
-        <f t="shared" si="0"/>
-        <v>7.7430555555555554</v>
+      <c r="I16" s="2">
+        <v>7.74</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -974,27 +959,26 @@
       <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>700</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>250</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>600</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>600</v>
       </c>
-      <c r="G17">
-        <v>800</v>
-      </c>
-      <c r="H17">
+      <c r="G17" s="2">
+        <v>800</v>
+      </c>
+      <c r="H17" s="2">
         <v>2</v>
       </c>
-      <c r="I17" s="3">
-        <f t="shared" si="0"/>
-        <v>4.6041666666666661</v>
+      <c r="I17" s="2">
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1004,27 +988,26 @@
       <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
         <v>550</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
         <v>1</v>
       </c>
-      <c r="I18" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1111111111111112</v>
+      <c r="I18" s="2">
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1034,27 +1017,26 @@
       <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>650</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>400</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>266.67</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>550</v>
       </c>
-      <c r="G19">
-        <v>800</v>
-      </c>
-      <c r="H19">
+      <c r="G19" s="2">
+        <v>800</v>
+      </c>
+      <c r="H19" s="2">
         <v>7</v>
       </c>
-      <c r="I19" s="3">
-        <f t="shared" si="0"/>
-        <v>6.7569486111111114</v>
+      <c r="I19" s="2">
+        <v>6.76</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1064,27 +1046,26 @@
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20">
-        <v>800</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="2">
+        <v>800</v>
+      </c>
+      <c r="D20" s="2">
         <v>750</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>700</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>900</v>
       </c>
-      <c r="G20">
-        <v>800</v>
-      </c>
-      <c r="H20">
+      <c r="G20" s="2">
+        <v>800</v>
+      </c>
+      <c r="H20" s="2">
         <v>7</v>
       </c>
-      <c r="I20" s="3">
-        <f t="shared" si="0"/>
-        <v>8.3125</v>
+      <c r="I20" s="2">
+        <v>8.31</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1094,27 +1075,26 @@
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21">
-        <v>800</v>
-      </c>
-      <c r="D21">
+      <c r="C21" s="2">
+        <v>800</v>
+      </c>
+      <c r="D21" s="2">
         <v>750</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>200</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>600</v>
       </c>
-      <c r="G21">
-        <v>800</v>
-      </c>
-      <c r="H21">
+      <c r="G21" s="2">
+        <v>800</v>
+      </c>
+      <c r="H21" s="2">
         <v>6</v>
       </c>
-      <c r="I21" s="3">
-        <f t="shared" si="0"/>
-        <v>6.8541666666666661</v>
+      <c r="I21" s="2">
+        <v>6.85</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1124,27 +1104,26 @@
       <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C22">
-        <v>800</v>
-      </c>
-      <c r="D22">
+      <c r="C22" s="2">
+        <v>800</v>
+      </c>
+      <c r="D22" s="2">
         <v>750</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>700</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>900</v>
       </c>
-      <c r="G22">
-        <v>800</v>
-      </c>
-      <c r="H22">
+      <c r="G22" s="2">
+        <v>800</v>
+      </c>
+      <c r="H22" s="2">
         <v>10</v>
       </c>
-      <c r="I22" s="3">
-        <f t="shared" si="0"/>
-        <v>9.8125</v>
+      <c r="I22" s="2">
+        <v>9.81</v>
       </c>
     </row>
   </sheetData>
